--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H2">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.88351294625641</v>
+        <v>2.891565</v>
       </c>
       <c r="N2">
-        <v>1.88351294625641</v>
+        <v>8.674695</v>
       </c>
       <c r="O2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q2">
-        <v>91.18250998879101</v>
+        <v>142.25231559591</v>
       </c>
       <c r="R2">
-        <v>91.18250998879101</v>
+        <v>1280.27084036319</v>
       </c>
       <c r="S2">
-        <v>0.01569082810808691</v>
+        <v>0.02238095399524439</v>
       </c>
       <c r="T2">
-        <v>0.01569082810808691</v>
+        <v>0.02238095399524439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H3">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J3">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.893838915054</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N3">
-        <v>106.893838915054</v>
+        <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9801643940711203</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P3">
-        <v>0.9801643940711203</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q3">
-        <v>5174.82428458193</v>
+        <v>5383.376484495802</v>
       </c>
       <c r="R3">
-        <v>5174.82428458193</v>
+        <v>48450.38836046222</v>
       </c>
       <c r="S3">
-        <v>0.8904918097660441</v>
+        <v>0.8469816532255111</v>
       </c>
       <c r="T3">
-        <v>0.8904918097660441</v>
+        <v>0.8469816532255111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H4">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J4">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.279699753337226</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N4">
-        <v>0.279699753337226</v>
+        <v>0.199392</v>
       </c>
       <c r="O4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q4">
-        <v>13.54050982406259</v>
+        <v>3.269737288896001</v>
       </c>
       <c r="R4">
-        <v>13.54050982406259</v>
+        <v>29.427635600064</v>
       </c>
       <c r="S4">
-        <v>0.002330071986078756</v>
+        <v>0.0005144368970920326</v>
       </c>
       <c r="T4">
-        <v>0.002330071986078756</v>
+        <v>0.0005144368970920326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.85613439842071</v>
+        <v>49.195614</v>
       </c>
       <c r="H5">
-        <v>1.85613439842071</v>
+        <v>147.586842</v>
       </c>
       <c r="I5">
-        <v>0.03483353045614887</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J5">
-        <v>0.03483353045614887</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.88351294625641</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N5">
-        <v>1.88351294625641</v>
+        <v>0.987322</v>
       </c>
       <c r="O5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q5">
-        <v>3.496053169417261</v>
+        <v>16.190637335236</v>
       </c>
       <c r="R5">
-        <v>3.496053169417261</v>
+        <v>145.715736017124</v>
       </c>
       <c r="S5">
-        <v>0.000601606265771825</v>
+        <v>0.002547318177814054</v>
       </c>
       <c r="T5">
-        <v>0.000601606265771825</v>
+        <v>0.002547318177814054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H6">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I6">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J6">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.893838915054</v>
+        <v>2.891565</v>
       </c>
       <c r="N6">
-        <v>106.893838915054</v>
+        <v>8.674695</v>
       </c>
       <c r="O6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q6">
-        <v>198.409331389474</v>
+        <v>0.15122113866</v>
       </c>
       <c r="R6">
-        <v>198.409331389474</v>
+        <v>1.36099024794</v>
       </c>
       <c r="S6">
-        <v>0.03414258627290907</v>
+        <v>2.379204396975906E-05</v>
       </c>
       <c r="T6">
-        <v>0.03414258627290907</v>
+        <v>2.379204396975906E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H7">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J7">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.279699753337226</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N7">
-        <v>0.279699753337226</v>
+        <v>328.283929</v>
       </c>
       <c r="O7">
-        <v>0.0025647103896183</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P7">
-        <v>0.0025647103896183</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q7">
-        <v>0.519160333399013</v>
+        <v>5.722791354296445</v>
       </c>
       <c r="R7">
-        <v>0.519160333399013</v>
+        <v>51.505122188668</v>
       </c>
       <c r="S7">
-        <v>8.933791746797048E-05</v>
+        <v>0.0009003827423711451</v>
       </c>
       <c r="T7">
-        <v>8.933791746797048E-05</v>
+        <v>0.0009003827423711452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.2275454016719</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H8">
-        <v>1.2275454016719</v>
+        <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J8">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.88351294625641</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N8">
-        <v>1.88351294625641</v>
+        <v>0.199392</v>
       </c>
       <c r="O8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q8">
-        <v>2.312097656166549</v>
+        <v>0.003475889962666667</v>
       </c>
       <c r="R8">
-        <v>2.312097656166549</v>
+        <v>0.031283009664</v>
       </c>
       <c r="S8">
-        <v>0.0003978693599954604</v>
+        <v>5.468714728550339E-07</v>
       </c>
       <c r="T8">
-        <v>0.0003978693599954604</v>
+        <v>5.468714728550339E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.2275454016719</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H9">
-        <v>1.2275454016719</v>
+        <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J9">
-        <v>0.02303698491436057</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.893838915054</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N9">
-        <v>106.893838915054</v>
+        <v>0.987322</v>
       </c>
       <c r="O9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q9">
-        <v>131.2170404272314</v>
+        <v>0.01721143591377778</v>
       </c>
       <c r="R9">
-        <v>131.2170404272314</v>
+        <v>0.154902923224</v>
       </c>
       <c r="S9">
-        <v>0.02258003235980977</v>
+        <v>2.707923268346663E-06</v>
       </c>
       <c r="T9">
-        <v>0.02258003235980977</v>
+        <v>2.707923268346663E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H10">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I10">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J10">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.279699753337226</v>
+        <v>2.891565</v>
       </c>
       <c r="N10">
-        <v>0.279699753337226</v>
+        <v>8.674695</v>
       </c>
       <c r="O10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q10">
-        <v>0.3433441460578765</v>
+        <v>5.485099287015</v>
       </c>
       <c r="R10">
-        <v>0.3433441460578765</v>
+        <v>49.365893583135</v>
       </c>
       <c r="S10">
-        <v>5.90831945553406E-05</v>
+        <v>0.0008629859857659859</v>
       </c>
       <c r="T10">
-        <v>5.90831945553406E-05</v>
+        <v>0.0008629859857659859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.79129853322718</v>
+        <v>1.896931</v>
       </c>
       <c r="H11">
-        <v>1.79129853322718</v>
+        <v>5.690793</v>
       </c>
       <c r="I11">
-        <v>0.03361677476928094</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J11">
-        <v>0.03361677476928094</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.88351294625641</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N11">
-        <v>1.88351294625641</v>
+        <v>328.283929</v>
       </c>
       <c r="O11">
-        <v>0.01727089553926132</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P11">
-        <v>0.01727089553926132</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q11">
-        <v>3.373933977943512</v>
+        <v>207.5773205739663</v>
       </c>
       <c r="R11">
-        <v>3.373933977943512</v>
+        <v>1868.195885165697</v>
       </c>
       <c r="S11">
-        <v>0.0005805918054071268</v>
+        <v>0.03265871942231928</v>
       </c>
       <c r="T11">
-        <v>0.0005805918054071268</v>
+        <v>0.03265871942231928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.79129853322718</v>
+        <v>1.896931</v>
       </c>
       <c r="H12">
-        <v>1.79129853322718</v>
+        <v>5.690793</v>
       </c>
       <c r="I12">
-        <v>0.03361677476928094</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J12">
-        <v>0.03361677476928094</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>106.893838915054</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N12">
-        <v>106.893838915054</v>
+        <v>0.199392</v>
       </c>
       <c r="O12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q12">
-        <v>191.4787768595587</v>
+        <v>0.126077621984</v>
       </c>
       <c r="R12">
-        <v>191.4787768595587</v>
+        <v>1.134698597856</v>
       </c>
       <c r="S12">
-        <v>0.03294996567235758</v>
+        <v>1.983614428793767E-05</v>
       </c>
       <c r="T12">
-        <v>0.03294996567235758</v>
+        <v>1.983614428793767E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.896931</v>
+      </c>
+      <c r="H13">
+        <v>5.690793</v>
+      </c>
+      <c r="I13">
+        <v>0.03363976345521111</v>
+      </c>
+      <c r="J13">
+        <v>0.0336397634552111</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.987322</v>
+      </c>
+      <c r="O13">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P13">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q13">
+        <v>0.6242939029273334</v>
+      </c>
+      <c r="R13">
+        <v>5.618645126346</v>
+      </c>
+      <c r="S13">
+        <v>9.822190283790323E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.82219028379032E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J14">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.891565</v>
+      </c>
+      <c r="N14">
+        <v>8.674695</v>
+      </c>
+      <c r="O14">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="P14">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="Q14">
+        <v>8.811148916204999</v>
+      </c>
+      <c r="R14">
+        <v>79.30034024584499</v>
+      </c>
+      <c r="S14">
+        <v>0.001386282660586099</v>
+      </c>
+      <c r="T14">
+        <v>0.001386282660586099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J15">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N15">
+        <v>328.283929</v>
+      </c>
+      <c r="O15">
+        <v>0.9708367737425379</v>
+      </c>
+      <c r="P15">
+        <v>0.970836773742538</v>
+      </c>
+      <c r="Q15">
+        <v>333.4478716791621</v>
+      </c>
+      <c r="R15">
+        <v>3001.030845112459</v>
+      </c>
+      <c r="S15">
+        <v>0.05246228467073229</v>
+      </c>
+      <c r="T15">
+        <v>0.05246228467073229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J16">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.199392</v>
+      </c>
+      <c r="O16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q16">
+        <v>0.2025284583146667</v>
+      </c>
+      <c r="R16">
+        <v>1.822756124832</v>
+      </c>
+      <c r="S16">
+        <v>3.186436782614069E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.186436782614069E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J17">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.987322</v>
+      </c>
+      <c r="O17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q17">
+        <v>1.002852684762444</v>
+      </c>
+      <c r="R17">
+        <v>9.025674162862</v>
+      </c>
+      <c r="S17">
+        <v>0.0001577816129575955</v>
+      </c>
+      <c r="T17">
+        <v>0.0001577816129575955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.592541</v>
+      </c>
+      <c r="I18">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J18">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.891565</v>
+      </c>
+      <c r="N18">
+        <v>8.674695</v>
+      </c>
+      <c r="O18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="P18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="Q18">
+        <v>6.354253605555</v>
+      </c>
+      <c r="R18">
+        <v>57.18828244999499</v>
+      </c>
+      <c r="S18">
+        <v>0.0009997324614667371</v>
+      </c>
+      <c r="T18">
+        <v>0.0009997324614667374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.592541</v>
+      </c>
+      <c r="I19">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J19">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N19">
+        <v>328.283929</v>
+      </c>
+      <c r="O19">
+        <v>0.9708367737425379</v>
+      </c>
+      <c r="P19">
+        <v>0.970836773742538</v>
+      </c>
+      <c r="Q19">
+        <v>240.4694735081765</v>
+      </c>
+      <c r="R19">
+        <v>2164.225261573589</v>
+      </c>
+      <c r="S19">
+        <v>0.03783373368160398</v>
+      </c>
+      <c r="T19">
+        <v>0.03783373368160398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="H13">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="I13">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="J13">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="N13">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="O13">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="P13">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="Q13">
-        <v>0.501025757896977</v>
-      </c>
-      <c r="R13">
-        <v>0.501025757896977</v>
-      </c>
-      <c r="S13">
-        <v>8.621729151623315E-05</v>
-      </c>
-      <c r="T13">
-        <v>8.621729151623315E-05</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.592541</v>
+      </c>
+      <c r="I20">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J20">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.199392</v>
+      </c>
+      <c r="O20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q20">
+        <v>0.1460555483413334</v>
+      </c>
+      <c r="R20">
+        <v>1.314499935072</v>
+      </c>
+      <c r="S20">
+        <v>2.297932722208397E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.297932722208397E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.592541</v>
+      </c>
+      <c r="I21">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J21">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.987322</v>
+      </c>
+      <c r="O21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q21">
+        <v>0.7232178628002223</v>
+      </c>
+      <c r="R21">
+        <v>6.508960765202</v>
+      </c>
+      <c r="S21">
+        <v>0.0001137858856501885</v>
+      </c>
+      <c r="T21">
+        <v>0.0001137858856501885</v>
       </c>
     </row>
   </sheetData>
